--- a/output/fit_clients/fit_round_156.xlsx
+++ b/output/fit_clients/fit_round_156.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2109672645.453921</v>
+        <v>2213791662.251029</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07958609098631848</v>
+        <v>0.07166681849200428</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02976028055003359</v>
+        <v>0.03800126479548121</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1054836333.114935</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2383316901.784151</v>
+        <v>2034467185.15122</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1400606805382195</v>
+        <v>0.1724871584303519</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03765627495794962</v>
+        <v>0.03659259698850633</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1191658550.284439</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4774677475.860536</v>
+        <v>5041195866.176558</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1511557847618147</v>
+        <v>0.1475893032862654</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03585256011319633</v>
+        <v>0.03289950839432575</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>56</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2387338806.951996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4040120982.883445</v>
+        <v>3630252228.402403</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06716399131814389</v>
+        <v>0.06746048514818469</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04090440619945663</v>
+        <v>0.03098910272728487</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>65</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2020060492.419087</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2109944393.378696</v>
+        <v>1742667472.790485</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1331956369191023</v>
+        <v>0.1354232982995</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05411824131214982</v>
+        <v>0.04995514664470129</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>25</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1054972214.34378</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3138842047.032441</v>
+        <v>2363620645.825069</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08799760935262296</v>
+        <v>0.07142645763480475</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03417887897850144</v>
+        <v>0.04853728874757132</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>46</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1569420974.9776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2589318514.781679</v>
+        <v>3138872909.366361</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1630018174908572</v>
+        <v>0.2070742854774608</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02575573448991567</v>
+        <v>0.0238922305361329</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>50</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1294659272.887556</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2080514987.631842</v>
+        <v>1927045476.145699</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1890880679529873</v>
+        <v>0.1655298762201007</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02483767205754857</v>
+        <v>0.0250178890004766</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1040257509.217432</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4404099561.478449</v>
+        <v>3784517798.302503</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1558921914217427</v>
+        <v>0.1667314985317337</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04059220560884527</v>
+        <v>0.03885533355989133</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>66</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2202049833.900786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3471887532.965556</v>
+        <v>3109915705.04278</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1433091166576654</v>
+        <v>0.116644646191038</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03687019357076187</v>
+        <v>0.03027063521399552</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>65</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1735943742.301954</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2669447380.038276</v>
+        <v>3215940941.327905</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1391833149259373</v>
+        <v>0.1373342322807251</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04264404626441055</v>
+        <v>0.03709146408175418</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>54</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1334723677.735867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3215140928.89184</v>
+        <v>4791053081.49253</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07509638107167016</v>
+        <v>0.07774482049042417</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01982850321508298</v>
+        <v>0.02863471403940674</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>52</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1607570559.209485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2617816558.356672</v>
+        <v>3883553760.863928</v>
       </c>
       <c r="F14" t="n">
-        <v>0.168161738070371</v>
+        <v>0.1172229545518384</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03896120970526816</v>
+        <v>0.03882839689549922</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>50</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1308908341.255862</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1667608882.226127</v>
+        <v>1802298447.136877</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06576979135305711</v>
+        <v>0.06948263993725609</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03641373337852961</v>
+        <v>0.0428860569874591</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>833804564.5801585</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2612463609.755356</v>
+        <v>2164745055.052836</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0968454415876653</v>
+        <v>0.07611337320714386</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04345112865435726</v>
+        <v>0.03749344509959507</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>23</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1306231825.604266</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3405957298.678335</v>
+        <v>3537056059.021149</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1631453487815427</v>
+        <v>0.1374685971411821</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04132170597331614</v>
+        <v>0.05244967429037244</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>46</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1702978713.289115</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2479959046.699553</v>
+        <v>3091235723.504363</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1662369896309905</v>
+        <v>0.1112522688763531</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02084341517835982</v>
+        <v>0.03332380240763794</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>51</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1239979591.198715</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>836801139.31654</v>
+        <v>1297848428.477037</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1524463641937765</v>
+        <v>0.1710164745334025</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01666766360454236</v>
+        <v>0.01981960354368934</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>418400559.1282957</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2129304827.95274</v>
+        <v>2705339590.244638</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1133801962761886</v>
+        <v>0.1543466886775859</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02089748434250083</v>
+        <v>0.02409195346024275</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>25</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1064652426.511355</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1847598969.555155</v>
+        <v>2557827850.249082</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09021768911923959</v>
+        <v>0.06541775014705128</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03420959186349934</v>
+        <v>0.03559520270390958</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>923799535.2671144</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3004654457.717349</v>
+        <v>3915183201.300986</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1441071507993521</v>
+        <v>0.1142934990878215</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05088999990808327</v>
+        <v>0.05571530414882694</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>43</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1502327290.077091</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1048445325.701519</v>
+        <v>1408714055.029347</v>
       </c>
       <c r="F23" t="n">
-        <v>0.143052692189886</v>
+        <v>0.1796261770415778</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03621619777437077</v>
+        <v>0.04407794829357194</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>524222724.8405687</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3937397914.545862</v>
+        <v>3414374351.750991</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1265688484700516</v>
+        <v>0.1221402775741474</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02757038506126674</v>
+        <v>0.03526117847685794</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>46</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1968698929.433165</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1083715214.206352</v>
+        <v>1126400572.622566</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1204741875702522</v>
+        <v>0.0793745641288157</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03060363527193834</v>
+        <v>0.02602880398314885</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>541857651.7977122</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1167332573.293472</v>
+        <v>1158835252.953461</v>
       </c>
       <c r="F26" t="n">
-        <v>0.124573155692611</v>
+        <v>0.07844612853588119</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02624509461944463</v>
+        <v>0.02693045283388294</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>583666299.6231052</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3541100600.024909</v>
+        <v>4397794677.829341</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1530677264249634</v>
+        <v>0.1342814870557194</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01986182892695503</v>
+        <v>0.01932144925608927</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>36</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1770550332.921819</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2521632452.967428</v>
+        <v>3515066729.175822</v>
       </c>
       <c r="F28" t="n">
-        <v>0.129919031977474</v>
+        <v>0.1038346998866769</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04234595124772639</v>
+        <v>0.04220630927908488</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>50</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1260816196.142576</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5560351858.693178</v>
+        <v>5727467434.896438</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09777532113570361</v>
+        <v>0.1365457192270066</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03777948957566477</v>
+        <v>0.03989311169528127</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>70</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2780175838.025237</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2162340426.248779</v>
+        <v>1650489846.362258</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1327717134613191</v>
+        <v>0.1264903238851234</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03177976100251965</v>
+        <v>0.03979975678420744</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1081170269.036042</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1004245401.164866</v>
+        <v>1181337359.381704</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09346968675835923</v>
+        <v>0.07527319702451914</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04415244134415872</v>
+        <v>0.04298840989148658</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>502122698.0734227</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1199827297.347825</v>
+        <v>1215685678.139887</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1048274383385158</v>
+        <v>0.08662107244159989</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03411613165533448</v>
+        <v>0.0344089171908331</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>599913654.8275708</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2593360415.758926</v>
+        <v>2408439965.38259</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1266574825242802</v>
+        <v>0.1260727997969827</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04505182455964559</v>
+        <v>0.04439456312226769</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>47</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1296680238.089364</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>993984656.1155452</v>
+        <v>1072551257.56026</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09105149305281346</v>
+        <v>0.07621274710893708</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02834489754986961</v>
+        <v>0.02175779925751101</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>496992366.8451169</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1136499361.926459</v>
+        <v>1298958356.816732</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1026210565182827</v>
+        <v>0.08938793092363964</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04357230160342123</v>
+        <v>0.03655965301824435</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>568249669.5750403</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2543405067.454462</v>
+        <v>2094939596.370067</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1666414591006555</v>
+        <v>0.133266960213769</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01992985791182363</v>
+        <v>0.02486716354958907</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>39</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1271702552.203909</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2492442753.606349</v>
+        <v>1780003865.863168</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07546903042798225</v>
+        <v>0.09961725237286909</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03566921105063982</v>
+        <v>0.04090858502822842</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>43</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1246221471.777529</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2016471792.495059</v>
+        <v>1421081071.310597</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1041444224081493</v>
+        <v>0.0912140599401542</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03644782909174778</v>
+        <v>0.03276325784521109</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1008235872.514899</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2225839539.935011</v>
+        <v>1867248270.037205</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1873944236547252</v>
+        <v>0.1226916267017732</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03009542326294244</v>
+        <v>0.024170856566276</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1112919730.181406</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1283852359.648119</v>
+        <v>1368974735.838907</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1618835530539069</v>
+        <v>0.1521037021217538</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04573268829315844</v>
+        <v>0.04333022643887934</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>641926200.0904353</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2230561494.314772</v>
+        <v>2496342086.705101</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1479290390092954</v>
+        <v>0.1236983669593622</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04469309479533037</v>
+        <v>0.03768996073122129</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>38</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1115280798.814022</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4251779212.402486</v>
+        <v>3373840957.994964</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1209234020086142</v>
+        <v>0.1052164619177182</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04461385826527713</v>
+        <v>0.03406845287098816</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>51</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2125889652.76427</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2586142994.169333</v>
+        <v>2634304521.400083</v>
       </c>
       <c r="F43" t="n">
-        <v>0.169012963981472</v>
+        <v>0.204203420020206</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01917799027843438</v>
+        <v>0.02184933216321371</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>54</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1293071537.058628</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2194641617.87161</v>
+        <v>1691419017.325323</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06476994873933242</v>
+        <v>0.08019819914739497</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0320438801327228</v>
+        <v>0.02943883495867178</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1097320954.071176</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1795439438.186259</v>
+        <v>1591709752.970056</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1457125548820277</v>
+        <v>0.1330165344054153</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04108857444305184</v>
+        <v>0.03428585136364911</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>897719689.2930865</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4113270711.03348</v>
+        <v>5345972910.867174</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1393864396674174</v>
+        <v>0.1717937008563765</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05650899973335059</v>
+        <v>0.06100813519850981</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>56</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2056635331.534482</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4547295480.551742</v>
+        <v>4335194114.684272</v>
       </c>
       <c r="F47" t="n">
-        <v>0.185439146781069</v>
+        <v>0.1498801353983563</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05645851906746904</v>
+        <v>0.03828490705440321</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>42</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2273647770.419149</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4358966565.030461</v>
+        <v>3372666602.396802</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09619430373350896</v>
+        <v>0.07079959625216678</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03003742077882831</v>
+        <v>0.03917754831292232</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>53</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2179483296.014115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1399368652.699532</v>
+        <v>1528483902.898565</v>
       </c>
       <c r="F49" t="n">
-        <v>0.143185586189442</v>
+        <v>0.1261969887196412</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03013714155414486</v>
+        <v>0.03119745766748123</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>699684373.9963771</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2547342301.711184</v>
+        <v>3372918424.047714</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1403314362628954</v>
+        <v>0.1566219609214275</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04163125298137716</v>
+        <v>0.03450472354088153</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>53</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1273671242.870357</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1404009612.937202</v>
+        <v>950752410.1296815</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1622276579835036</v>
+        <v>0.1639370743702747</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03443575419156596</v>
+        <v>0.03960226663788264</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>702004824.9311028</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3362171425.958812</v>
+        <v>4134144007.145116</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1107024806035279</v>
+        <v>0.08532420717333217</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04752273960122341</v>
+        <v>0.05898680385981302</v>
       </c>
       <c r="H52" t="b">
         <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>64</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1681085806.970218</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3486867909.208928</v>
+        <v>2610014384.476201</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1668268583129813</v>
+        <v>0.1422831834745675</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02406879305250144</v>
+        <v>0.02927822908474302</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>45</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1743433953.41923</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4877628036.698453</v>
+        <v>3033087224.576849</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1096509502224009</v>
+        <v>0.1234043742037517</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03898665110624291</v>
+        <v>0.03689435498896206</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>52</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2438814151.308356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4462380020.368729</v>
+        <v>3545920513.5395</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2168283322782408</v>
+        <v>0.2068022023518712</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02844862293240589</v>
+        <v>0.031757602902422</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>44</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2231190005.464789</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1570390971.2601</v>
+        <v>1611238594.110842</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1413349272022435</v>
+        <v>0.1303049083470591</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04811659839883457</v>
+        <v>0.05559390067474729</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>785195517.4217789</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3640132229.434461</v>
+        <v>3027262760.631262</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1270661153176136</v>
+        <v>0.1706997059396673</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02055913253334201</v>
+        <v>0.02681098017033988</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>49</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1820066172.837523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1823003512.487124</v>
+        <v>1794788134.899041</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1597750123809914</v>
+        <v>0.1925165390968705</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03870680962025125</v>
+        <v>0.03153495111155805</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>911501757.8620535</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3417967773.842723</v>
+        <v>4677870278.939227</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09857401540358228</v>
+        <v>0.09734489918614241</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04070226164774524</v>
+        <v>0.04718053403696331</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>44</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1708983890.882598</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3754105520.002151</v>
+        <v>3170435058.084328</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1852068789697351</v>
+        <v>0.1981643096019182</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02956343454433921</v>
+        <v>0.03217847886550404</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>48</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1877052909.407826</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2047794344.54573</v>
+        <v>2557351906.310089</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1164304713270545</v>
+        <v>0.144246827581398</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0270289170384706</v>
+        <v>0.03160477678468365</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>54</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1023897242.500529</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1706901793.304971</v>
+        <v>1748214067.214882</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1600922840138729</v>
+        <v>0.1274631093277352</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04575402278747911</v>
+        <v>0.03934981363811849</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>853450910.6778096</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4449205107.638314</v>
+        <v>4005197942.107097</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07654438934038327</v>
+        <v>0.09855090384199144</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04677465389016574</v>
+        <v>0.04176176638492815</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>44</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2224602596.116514</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3995917133.743579</v>
+        <v>4321090461.651383</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1797693207248421</v>
+        <v>0.1504599565043097</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03142021196632664</v>
+        <v>0.02671684877165758</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>48</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1997958602.413327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4483653472.98728</v>
+        <v>5308571219.67745</v>
       </c>
       <c r="F65" t="n">
-        <v>0.14296304807737</v>
+        <v>0.1207204883689251</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03154800864622116</v>
+        <v>0.02913411381329941</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>56</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2241826726.183105</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5246871121.895722</v>
+        <v>4797108924.890348</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1589679300511798</v>
+        <v>0.1011412792980715</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04584051294594531</v>
+        <v>0.05099626275544057</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>45</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2623435601.275035</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2367686821.239428</v>
+        <v>2397196347.202598</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06467843935087511</v>
+        <v>0.09019066538449741</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04699118773719124</v>
+        <v>0.03718181995617518</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>50</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1183843482.345184</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3942868777.790678</v>
+        <v>4792256794.881155</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1247889609924362</v>
+        <v>0.1515918583349333</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03388443087880989</v>
+        <v>0.03426972943603523</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>50</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1971434381.189437</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1616303178.98725</v>
+        <v>1955684293.643873</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1313473220640779</v>
+        <v>0.1163535675435908</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03869412707592617</v>
+        <v>0.05741108945407739</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>808151544.8330587</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3582239137.98285</v>
+        <v>3592324460.846632</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0983145710537234</v>
+        <v>0.07828973853802138</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03278712293341449</v>
+        <v>0.04032804569975835</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>44</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1791119583.895587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5436242897.240152</v>
+        <v>4278387670.272045</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1381537358090095</v>
+        <v>0.1385664517514066</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03381799786832129</v>
+        <v>0.02590784447608591</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>57</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2718121586.847655</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1509462582.072479</v>
+        <v>1805975658.328354</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07287748003391881</v>
+        <v>0.07702228576430574</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05067029854710579</v>
+        <v>0.03992281604390384</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>754731316.4781569</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3037653966.561579</v>
+        <v>2368255936.44471</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08823405368245971</v>
+        <v>0.1011345163272955</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04919508956907285</v>
+        <v>0.03675703936700869</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>58</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1518826975.777568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3588509478.230688</v>
+        <v>2648129998.267648</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1565761595075862</v>
+        <v>0.1761351803779097</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03052712790399481</v>
+        <v>0.03194636451909344</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>53</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1794254753.62604</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2301723413.47989</v>
+        <v>2356686994.350659</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1378492729396892</v>
+        <v>0.137166301732661</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02724711054065397</v>
+        <v>0.0242046799486238</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1150861642.572257</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5349002427.63804</v>
+        <v>4011210458.362678</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09785652463284193</v>
+        <v>0.1211230297000789</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02678638613697121</v>
+        <v>0.0265190319768125</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>35</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2674501255.067507</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1510038857.474905</v>
+        <v>1926310195.75158</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1834851279267602</v>
+        <v>0.1690970370638791</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02449904280086273</v>
+        <v>0.02456937410886759</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>755019417.9040682</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3843523229.092489</v>
+        <v>3156857014.198134</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08283367523655454</v>
+        <v>0.1111345545784959</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03824933981186888</v>
+        <v>0.05399943578384089</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>54</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1921761591.412441</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1190946689.00704</v>
+        <v>1565360754.486289</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1460980195662194</v>
+        <v>0.1406322243170537</v>
       </c>
       <c r="G79" t="n">
-        <v>0.035331000730889</v>
+        <v>0.02902037068233018</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>595473324.6152865</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3648238120.39225</v>
+        <v>5520494578.370463</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1113275661416327</v>
+        <v>0.1114529603291068</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03454617296850647</v>
+        <v>0.02915505910232758</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>32</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1824119042.149228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4865586992.154223</v>
+        <v>5124734474.230604</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1213205678339027</v>
+        <v>0.125482992214101</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02710333166266738</v>
+        <v>0.02758443403944139</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>35</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2432793491.371575</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5587046790.619137</v>
+        <v>5353261731.241951</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1424272211338235</v>
+        <v>0.169967662764002</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01931173088119533</v>
+        <v>0.0247033219622398</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>55</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2793523346.423243</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1907523414.835195</v>
+        <v>2393414491.587348</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1534741652457071</v>
+        <v>0.1276557299542723</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03795178690455078</v>
+        <v>0.04483816676897698</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>953761681.2046088</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1703847709.534091</v>
+        <v>1878246903.064003</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1004466276066145</v>
+        <v>0.08652551759760373</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04066801193122714</v>
+        <v>0.04741376533539098</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>851923903.0965757</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3250040960.554605</v>
+        <v>3206723438.243148</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1812550675755495</v>
+        <v>0.1276651065772414</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05475092345744097</v>
+        <v>0.05223394427810488</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>59</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1625020567.989347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1953859921.944726</v>
+        <v>2309731926.90882</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1210236996848847</v>
+        <v>0.1508711978163537</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01771372999633841</v>
+        <v>0.01897401679303513</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>19</v>
-      </c>
-      <c r="J86" t="n">
-        <v>976929982.1242847</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>945431692.5664542</v>
+        <v>1095115902.35655</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1643321189764597</v>
+        <v>0.1786707529095475</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04188782504780675</v>
+        <v>0.03880652407036889</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>472715836.5743001</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2883022555.335721</v>
+        <v>2622859322.035442</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1737893993301926</v>
+        <v>0.1294167430031635</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03344498457697834</v>
+        <v>0.03765932321224467</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>62</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1441511296.5176</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2593638025.062475</v>
+        <v>2243394009.41772</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1594692308143583</v>
+        <v>0.1452603575067497</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04112957189804481</v>
+        <v>0.02713867729605278</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>53</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1296819080.387455</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2080913112.007203</v>
+        <v>1545868408.865622</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08433010245043157</v>
+        <v>0.0855970699623443</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0432872932206688</v>
+        <v>0.04600755913408665</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1040456641.005468</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1422054257.844648</v>
+        <v>1873194856.169517</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1497537296237352</v>
+        <v>0.1548707624786657</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04945287404025643</v>
+        <v>0.05756573599687893</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>711027178.2166883</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2662500301.261179</v>
+        <v>2177068869.327855</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07939875294721767</v>
+        <v>0.07597205783848651</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03035668365447887</v>
+        <v>0.04040258974903342</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>38</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1331250146.810182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4734739027.467088</v>
+        <v>4248016611.843225</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1042853178057385</v>
+        <v>0.1372147230851591</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05011772095736849</v>
+        <v>0.033045185217378</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>47</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2367369466.805844</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1814068905.658344</v>
+        <v>2092887789.219305</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1241560260830828</v>
+        <v>0.1222476411845494</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04296370753098415</v>
+        <v>0.03839661540467385</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>907034426.999312</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2755473944.96981</v>
+        <v>2126026562.387923</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09015472359261306</v>
+        <v>0.1145729584412128</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03731082365193598</v>
+        <v>0.05166649779284111</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>37</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1377736989.950496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1504111913.239497</v>
+        <v>1550238381.713205</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09034154131557938</v>
+        <v>0.09613871248959963</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03753290520018269</v>
+        <v>0.0465832898127654</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>752055996.5100024</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3648175617.839813</v>
+        <v>5100195743.129282</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1288578345768934</v>
+        <v>0.1475598601503656</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02192675455378045</v>
+        <v>0.02304273844974678</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>52</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1824087836.969719</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2981306309.020332</v>
+        <v>3906623174.208638</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1285804471344065</v>
+        <v>0.1072959055400187</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02132095941034795</v>
+        <v>0.02189693101242374</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>41</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1490653137.904321</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3019062833.477859</v>
+        <v>2414800873.777528</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09511778847979979</v>
+        <v>0.09431361246775588</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02824988222824463</v>
+        <v>0.03207982821494287</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>50</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1509531404.078905</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4799277939.881087</v>
+        <v>4785231620.18878</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1440127814844871</v>
+        <v>0.1275071819108628</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02075357236202765</v>
+        <v>0.01970202444199248</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>47</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2399639104.366218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2885603913.884361</v>
+        <v>2857671358.945234</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1370606184690759</v>
+        <v>0.1720737780977709</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04061428279046052</v>
+        <v>0.05231760761638613</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>65</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1442802030.88594</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_156.xlsx
+++ b/output/fit_clients/fit_round_156.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2213791662.251029</v>
+        <v>1679940063.455344</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07166681849200428</v>
+        <v>0.1055647117124788</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03800126479548121</v>
+        <v>0.0328936599248485</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2034467185.15122</v>
+        <v>2136220826.887112</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1724871584303519</v>
+        <v>0.1497154054126769</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03659259698850633</v>
+        <v>0.04578861560151197</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5041195866.176558</v>
+        <v>4909614131.196781</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1475893032862654</v>
+        <v>0.1579425478115863</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03289950839432575</v>
+        <v>0.02620864393171601</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3630252228.402403</v>
+        <v>2707668150.345778</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06746048514818469</v>
+        <v>0.06996038064979798</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03098910272728487</v>
+        <v>0.04793563795973618</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,16 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1742667472.790485</v>
+        <v>2536597785.775256</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1354232982995</v>
+        <v>0.1368858542738188</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04995514664470129</v>
+        <v>0.04646480246724286</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2363620645.825069</v>
+        <v>1975255823.559864</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07142645763480475</v>
+        <v>0.1015956041392782</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04853728874757132</v>
+        <v>0.04952157025907002</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3138872909.366361</v>
+        <v>3514469470.762109</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2070742854774608</v>
+        <v>0.1718870897825987</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0238922305361329</v>
+        <v>0.02803024246357336</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1927045476.145699</v>
+        <v>1440054008.379858</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1655298762201007</v>
+        <v>0.1712042932443607</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0250178890004766</v>
+        <v>0.0285216484559521</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3784517798.302503</v>
+        <v>3644127565.403852</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1667314985317337</v>
+        <v>0.2061591128079995</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03885533355989133</v>
+        <v>0.03647893799826135</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3109915705.04278</v>
+        <v>3717342721.812402</v>
       </c>
       <c r="F11" t="n">
-        <v>0.116644646191038</v>
+        <v>0.1428930856819605</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03027063521399552</v>
+        <v>0.03119070089210275</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3215940941.327905</v>
+        <v>2365438836.437629</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1373342322807251</v>
+        <v>0.1448285727394048</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03709146408175418</v>
+        <v>0.05244038039627751</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4791053081.49253</v>
+        <v>3978956633.136531</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07774482049042417</v>
+        <v>0.08206643239269969</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02863471403940674</v>
+        <v>0.02683389310173833</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3883553760.863928</v>
+        <v>3341238334.981295</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1172229545518384</v>
+        <v>0.1855574400036131</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03882839689549922</v>
+        <v>0.03592060490033325</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1802298447.136877</v>
+        <v>1708704846.773206</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06948263993725609</v>
+        <v>0.08092100656201738</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0428860569874591</v>
+        <v>0.03563804643590037</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2164745055.052836</v>
+        <v>2354928048.617801</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07611337320714386</v>
+        <v>0.08996184948708864</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03749344509959507</v>
+        <v>0.04522616029778322</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3537056059.021149</v>
+        <v>3437134860.716308</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1374685971411821</v>
+        <v>0.1647289007074368</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05244967429037244</v>
+        <v>0.04417987060699805</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3091235723.504363</v>
+        <v>3499733489.541549</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1112522688763531</v>
+        <v>0.1186941436154863</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03332380240763794</v>
+        <v>0.02559799762740849</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1297848428.477037</v>
+        <v>1105572371.912966</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1710164745334025</v>
+        <v>0.1866385823687403</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01981960354368934</v>
+        <v>0.01781962049773422</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2705339590.244638</v>
+        <v>2766770992.822228</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1543466886775859</v>
+        <v>0.1234554459777974</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02409195346024275</v>
+        <v>0.02415579184418855</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2557827850.249082</v>
+        <v>1761156850.239527</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06541775014705128</v>
+        <v>0.08419339044297521</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03559520270390958</v>
+        <v>0.03673886048522967</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3915183201.300986</v>
+        <v>2729783724.770814</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1142934990878215</v>
+        <v>0.1276515231840939</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05571530414882694</v>
+        <v>0.05712404043478377</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1408714055.029347</v>
+        <v>1465384023.813007</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1796261770415778</v>
+        <v>0.1475999291521946</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04407794829357194</v>
+        <v>0.03610856607743827</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3414374351.750991</v>
+        <v>3414963656.04295</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1221402775741474</v>
+        <v>0.1184996919881048</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03526117847685794</v>
+        <v>0.03649711665498867</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1130,16 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1126400572.622566</v>
+        <v>913994546.192844</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0793745641288157</v>
+        <v>0.08475130423296184</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02602880398314885</v>
+        <v>0.02387101859886187</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1158835252.953461</v>
+        <v>1192611999.120532</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07844612853588119</v>
+        <v>0.0960391513943573</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02693045283388294</v>
+        <v>0.03605075853420376</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4397794677.829341</v>
+        <v>3634281662.408009</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1342814870557194</v>
+        <v>0.1438924421305354</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01932144925608927</v>
+        <v>0.02198636079169275</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3515066729.175822</v>
+        <v>2735699891.258346</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1038346998866769</v>
+        <v>0.09413478539187874</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04220630927908488</v>
+        <v>0.04963267838511251</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5727467434.896438</v>
+        <v>4804373368.818161</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1365457192270066</v>
+        <v>0.1133214857358865</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03989311169528127</v>
+        <v>0.04588048136740507</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1650489846.362258</v>
+        <v>1658289826.886642</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1264903238851234</v>
+        <v>0.1375196167414426</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03979975678420744</v>
+        <v>0.03914432972772371</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1181337359.381704</v>
+        <v>1264110508.521708</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07527319702451914</v>
+        <v>0.0846244566054257</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04298840989148658</v>
+        <v>0.03612681676415877</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1215685678.139887</v>
+        <v>1503616763.85653</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08662107244159989</v>
+        <v>0.08717992874806296</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0344089171908331</v>
+        <v>0.03025444980286308</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2408439965.38259</v>
+        <v>2706809385.435589</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1260727997969827</v>
+        <v>0.1439221006213218</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04439456312226769</v>
+        <v>0.05499152230746461</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1072551257.56026</v>
+        <v>998353320.5220373</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07621274710893708</v>
+        <v>0.0771034238072468</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02175779925751101</v>
+        <v>0.02285449765380476</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1298958356.816732</v>
+        <v>1279070193.19963</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08938793092363964</v>
+        <v>0.08883625068614885</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03655965301824435</v>
+        <v>0.03595664929597189</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2094939596.370067</v>
+        <v>2084253179.020297</v>
       </c>
       <c r="F36" t="n">
-        <v>0.133266960213769</v>
+        <v>0.1505499859924264</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02486716354958907</v>
+        <v>0.02301632467106797</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1780003865.863168</v>
+        <v>2877744378.154752</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09961725237286909</v>
+        <v>0.0706269677737533</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04090858502822842</v>
+        <v>0.02795041515600921</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1421081071.310597</v>
+        <v>2083784471.076042</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0912140599401542</v>
+        <v>0.07377647475775061</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03276325784521109</v>
+        <v>0.03550200936447381</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1867248270.037205</v>
+        <v>1948319621.39196</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1226916267017732</v>
+        <v>0.1308971996506648</v>
       </c>
       <c r="G39" t="n">
-        <v>0.024170856566276</v>
+        <v>0.02419200817124297</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1368974735.838907</v>
+        <v>1494594337.836943</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1521037021217538</v>
+        <v>0.1150531907624685</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04333022643887934</v>
+        <v>0.03960758860579734</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2496342086.705101</v>
+        <v>2523402148.153913</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1236983669593622</v>
+        <v>0.142940429609309</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03768996073122129</v>
+        <v>0.03361073777402324</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3373840957.994964</v>
+        <v>2813852667.430281</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1052164619177182</v>
+        <v>0.09655950906050421</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03406845287098816</v>
+        <v>0.04546931872376379</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2634304521.400083</v>
+        <v>2540487389.318939</v>
       </c>
       <c r="F43" t="n">
-        <v>0.204203420020206</v>
+        <v>0.1399107108055325</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02184933216321371</v>
+        <v>0.02543969113162712</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1691419017.325323</v>
+        <v>2057938974.950876</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08019819914739497</v>
+        <v>0.0822766486944236</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02943883495867178</v>
+        <v>0.0334629164363625</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1591709752.970056</v>
+        <v>2229200919.370741</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1330165344054153</v>
+        <v>0.1949090758443305</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03428585136364911</v>
+        <v>0.05526998791284878</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5345972910.867174</v>
+        <v>3922649312.632398</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1717937008563765</v>
+        <v>0.1498311961997104</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06100813519850981</v>
+        <v>0.04617452079437958</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4335194114.684272</v>
+        <v>3381072708.884433</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1498801353983563</v>
+        <v>0.2036475059049099</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03828490705440321</v>
+        <v>0.03660229867660642</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3372666602.396802</v>
+        <v>2968630572.34213</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07079959625216678</v>
+        <v>0.1040728737796954</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03917754831292232</v>
+        <v>0.03866256279323551</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1528483902.898565</v>
+        <v>1237541160.059784</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1261969887196412</v>
+        <v>0.1934636789305502</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03119745766748123</v>
+        <v>0.0295379129584475</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3372918424.047714</v>
+        <v>3922507562.729733</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1566219609214275</v>
+        <v>0.1728839859755429</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03450472354088153</v>
+        <v>0.03665231243289705</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>950752410.1296815</v>
+        <v>932307292.9967744</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1639370743702747</v>
+        <v>0.125041791252038</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03960226663788264</v>
+        <v>0.03667323660631486</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4134144007.145116</v>
+        <v>3994270970.422427</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08532420717333217</v>
+        <v>0.1230884689703157</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05898680385981302</v>
+        <v>0.04169772618790601</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2610014384.476201</v>
+        <v>2537433270.436203</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1422831834745675</v>
+        <v>0.1763383138476932</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02927822908474302</v>
+        <v>0.02532399066254935</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3033087224.576849</v>
+        <v>3788102150.569679</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1234043742037517</v>
+        <v>0.1249216170139181</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03689435498896206</v>
+        <v>0.04025955490393225</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3545920513.5395</v>
+        <v>4317088192.553164</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2068022023518712</v>
+        <v>0.1451142674013261</v>
       </c>
       <c r="G55" t="n">
-        <v>0.031757602902422</v>
+        <v>0.02311838353574047</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1611238594.110842</v>
+        <v>1485311413.875098</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1303049083470591</v>
+        <v>0.1445954482848494</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05559390067474729</v>
+        <v>0.03557952014413247</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3027262760.631262</v>
+        <v>3837547506.525281</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1706997059396673</v>
+        <v>0.1654339958447376</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02681098017033988</v>
+        <v>0.01706868571034846</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1794788134.899041</v>
+        <v>1837688389.336138</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1925165390968705</v>
+        <v>0.1263248682898387</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03153495111155805</v>
+        <v>0.03765711773773545</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4677870278.939227</v>
+        <v>4526385991.851501</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09734489918614241</v>
+        <v>0.07926605578787055</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04718053403696331</v>
+        <v>0.03471005641261898</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3170435058.084328</v>
+        <v>2407631102.186607</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1981643096019182</v>
+        <v>0.1501187293416741</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03217847886550404</v>
+        <v>0.02265680369478961</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2557351906.310089</v>
+        <v>3380279642.207486</v>
       </c>
       <c r="F61" t="n">
-        <v>0.144246827581398</v>
+        <v>0.1622496600727019</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03160477678468365</v>
+        <v>0.02159494348308674</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1748214067.214882</v>
+        <v>1913459687.818317</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1274631093277352</v>
+        <v>0.1186634673174527</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03934981363811849</v>
+        <v>0.04219407583574736</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4005197942.107097</v>
+        <v>4450150459.482933</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09855090384199144</v>
+        <v>0.09572133856597674</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04176176638492815</v>
+        <v>0.04609160839873987</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4321090461.651383</v>
+        <v>3702883987.093092</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1504599565043097</v>
+        <v>0.1731827979634648</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02671684877165758</v>
+        <v>0.02404451974048283</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5308571219.67745</v>
+        <v>5604084625.308434</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1207204883689251</v>
+        <v>0.1176760831721066</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02913411381329941</v>
+        <v>0.02007326973090673</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4797108924.890348</v>
+        <v>4435377336.594065</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1011412792980715</v>
+        <v>0.1278843319628276</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05099626275544057</v>
+        <v>0.049204975636327</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2397196347.202598</v>
+        <v>2540514806.285359</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09019066538449741</v>
+        <v>0.07742921072639139</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03718181995617518</v>
+        <v>0.03969887519140333</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4792256794.881155</v>
+        <v>5293686499.081044</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1515918583349333</v>
+        <v>0.1452737352913822</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03426972943603523</v>
+        <v>0.04839865719438873</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1955684293.643873</v>
+        <v>2132824919.726254</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1163535675435908</v>
+        <v>0.1412926337536335</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05741108945407739</v>
+        <v>0.05280194623901735</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3592324460.846632</v>
+        <v>3731705156.990042</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07828973853802138</v>
+        <v>0.08585685654894853</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04032804569975835</v>
+        <v>0.03053868101682029</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4278387670.272045</v>
+        <v>4921972207.284024</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1385664517514066</v>
+        <v>0.174938781105451</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02590784447608591</v>
+        <v>0.03286564707359062</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,16 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1805975658.328354</v>
+        <v>1376546386.932052</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07702228576430574</v>
+        <v>0.09316519468907926</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03992281604390384</v>
+        <v>0.05147805254860357</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2368255936.44471</v>
+        <v>3572376772.03164</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1011345163272955</v>
+        <v>0.102613800969167</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03675703936700869</v>
+        <v>0.05100089295530427</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2648129998.267648</v>
+        <v>3496788551.927795</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1761351803779097</v>
+        <v>0.1686614081176431</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03194636451909344</v>
+        <v>0.02435550629953892</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2356686994.350659</v>
+        <v>2189622008.325096</v>
       </c>
       <c r="F75" t="n">
-        <v>0.137166301732661</v>
+        <v>0.1136879427338362</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0242046799486238</v>
+        <v>0.0330865761960911</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4011210458.362678</v>
+        <v>3386710160.673893</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1211230297000789</v>
+        <v>0.1193080082324641</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0265190319768125</v>
+        <v>0.02292510109485546</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1926310195.75158</v>
+        <v>2114330978.043325</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1690970370638791</v>
+        <v>0.1568906648392856</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02456937410886759</v>
+        <v>0.02484753662617713</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3156857014.198134</v>
+        <v>3705710216.337812</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1111345545784959</v>
+        <v>0.1283557908952793</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05399943578384089</v>
+        <v>0.05201014817453611</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1565360754.486289</v>
+        <v>1299147929.185839</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1406322243170537</v>
+        <v>0.1138645582184747</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02902037068233018</v>
+        <v>0.03312339804414709</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5520494578.370463</v>
+        <v>4338211335.804828</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1114529603291068</v>
+        <v>0.1023820978135055</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02915505910232758</v>
+        <v>0.03799081766665299</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5124734474.230604</v>
+        <v>5064565784.739792</v>
       </c>
       <c r="F81" t="n">
-        <v>0.125482992214101</v>
+        <v>0.09117322237534807</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02758443403944139</v>
+        <v>0.02155890035602971</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5353261731.241951</v>
+        <v>4884747530.329775</v>
       </c>
       <c r="F82" t="n">
-        <v>0.169967662764002</v>
+        <v>0.1601127206670165</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0247033219622398</v>
+        <v>0.02664764365884274</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2393414491.587348</v>
+        <v>2325401321.470102</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1276557299542723</v>
+        <v>0.09747975070932634</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04483816676897698</v>
+        <v>0.03534303794673991</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1878246903.064003</v>
+        <v>2002137173.456589</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08652551759760373</v>
+        <v>0.08794099365553219</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04741376533539098</v>
+        <v>0.04899979680569439</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3206723438.243148</v>
+        <v>2474643642.011024</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1276651065772414</v>
+        <v>0.1126089644095425</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05223394427810488</v>
+        <v>0.05537522864035778</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2309731926.90882</v>
+        <v>2346141770.545067</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1508711978163537</v>
+        <v>0.1725133460943292</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01897401679303513</v>
+        <v>0.02756610189903749</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1095115902.35655</v>
+        <v>1012123329.59497</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1786707529095475</v>
+        <v>0.1884993952876287</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03880652407036889</v>
+        <v>0.03480565266872322</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2622859322.035442</v>
+        <v>3179399157.548836</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1294167430031635</v>
+        <v>0.1356550478004376</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03765932321224467</v>
+        <v>0.03679396951464394</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2243394009.41772</v>
+        <v>2965440600.495442</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1452603575067497</v>
+        <v>0.1001259522243525</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02713867729605278</v>
+        <v>0.03501644285964824</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1545868408.865622</v>
+        <v>1885667544.81998</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0855970699623443</v>
+        <v>0.08885847967137432</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04600755913408665</v>
+        <v>0.03686459642902123</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1873194856.169517</v>
+        <v>1678251542.75253</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1548707624786657</v>
+        <v>0.1802811964225658</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05756573599687893</v>
+        <v>0.04808051765844853</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2177068869.327855</v>
+        <v>2339987786.72928</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07597205783848651</v>
+        <v>0.06885474384950305</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04040258974903342</v>
+        <v>0.03567700302084436</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4248016611.843225</v>
+        <v>3113987055.337286</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1372147230851591</v>
+        <v>0.126507246818355</v>
       </c>
       <c r="G93" t="n">
-        <v>0.033045185217378</v>
+        <v>0.04429713890887863</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2092887789.219305</v>
+        <v>2067652993.716753</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1222476411845494</v>
+        <v>0.1289505805916451</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03839661540467385</v>
+        <v>0.02815979720728101</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2126026562.387923</v>
+        <v>2895991678.173283</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1145729584412128</v>
+        <v>0.1308799265772869</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05166649779284111</v>
+        <v>0.04322027646352841</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1550238381.713205</v>
+        <v>2182751922.043401</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09613871248959963</v>
+        <v>0.1180347588608411</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0465832898127654</v>
+        <v>0.04070377554833529</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5100195743.129282</v>
+        <v>3808356633.228309</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1475598601503656</v>
+        <v>0.1112536015766895</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02304273844974678</v>
+        <v>0.02696428508945361</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3906623174.208638</v>
+        <v>3061433573.442173</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1072959055400187</v>
+        <v>0.09243596918363053</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02189693101242374</v>
+        <v>0.02247621465444645</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2414800873.777528</v>
+        <v>2672518816.230709</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09431361246775588</v>
+        <v>0.101819547976283</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03207982821494287</v>
+        <v>0.02181693642163217</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4785231620.18878</v>
+        <v>3362742399.210766</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1275071819108628</v>
+        <v>0.1652452364275346</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01970202444199248</v>
+        <v>0.02591264073218083</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2857671358.945234</v>
+        <v>2759973186.064864</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1720737780977709</v>
+        <v>0.2187511006713236</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05231760761638613</v>
+        <v>0.04274293762480915</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_156.xlsx
+++ b/output/fit_clients/fit_round_156.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1679940063.455344</v>
+        <v>2334974024.109602</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1055647117124788</v>
+        <v>0.08540490484910093</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0328936599248485</v>
+        <v>0.03087055838349546</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2136220826.887112</v>
+        <v>2270479523.269986</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1497154054126769</v>
+        <v>0.1787365166361912</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04578861560151197</v>
+        <v>0.03614940844626785</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4909614131.196781</v>
+        <v>5110901369.947777</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1579425478115863</v>
+        <v>0.1577570314358937</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02620864393171601</v>
+        <v>0.02680343449636624</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>88</v>
+      </c>
+      <c r="J4" t="n">
+        <v>155</v>
+      </c>
+      <c r="K4" t="n">
+        <v>134.0662176354596</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2707668150.345778</v>
+        <v>3852601066.702718</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06996038064979798</v>
+        <v>0.09254692371967033</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04793563795973618</v>
+        <v>0.03396624911936803</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>64</v>
+      </c>
+      <c r="J5" t="n">
+        <v>156</v>
+      </c>
+      <c r="K5" t="n">
+        <v>152.5486731927018</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2536597785.775256</v>
+        <v>2148889714.02231</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1368858542738188</v>
+        <v>0.1434816263352099</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04646480246724286</v>
+        <v>0.05584525153394432</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1975255823.559864</v>
+        <v>2470484695.965846</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1015956041392782</v>
+        <v>0.08101176849522608</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04952157025907002</v>
+        <v>0.04191554637137856</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +709,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3514469470.762109</v>
+        <v>3549980813.536205</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1718870897825987</v>
+        <v>0.1862054492193547</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02803024246357336</v>
+        <v>0.02195363485118937</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>45</v>
+      </c>
+      <c r="J8" t="n">
+        <v>154</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1440054008.379858</v>
+        <v>1574929024.716778</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1712042932443607</v>
+        <v>0.1427196857981071</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0285216484559521</v>
+        <v>0.03260799218494258</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3644127565.403852</v>
+        <v>5634668153.287003</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2061591128079995</v>
+        <v>0.1819059984147016</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03647893799826135</v>
+        <v>0.04644101708301634</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>143</v>
+      </c>
+      <c r="J10" t="n">
+        <v>156</v>
+      </c>
+      <c r="K10" t="n">
+        <v>149.1521225231656</v>
       </c>
     </row>
     <row r="11">
@@ -738,17 +822,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3717342721.812402</v>
+        <v>2833643111.772542</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1428930856819605</v>
+        <v>0.1234339038252535</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03119070089210275</v>
+        <v>0.03742372452761308</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>66</v>
+      </c>
+      <c r="J11" t="n">
+        <v>154</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2365438836.437629</v>
+        <v>2370643661.770583</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1448285727394048</v>
+        <v>0.182290868238719</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05244038039627751</v>
+        <v>0.04278538016713988</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +892,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3978956633.136531</v>
+        <v>4075996232.072159</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08206643239269969</v>
+        <v>0.06701488905914746</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02683389310173833</v>
+        <v>0.02477986548562221</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>76</v>
+      </c>
+      <c r="J13" t="n">
+        <v>155</v>
+      </c>
+      <c r="K13" t="n">
+        <v>133.8921924098632</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3341238334.981295</v>
+        <v>3138160009.86311</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1855574400036131</v>
+        <v>0.1829260906956451</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03592060490033325</v>
+        <v>0.02741282352097498</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>28</v>
+      </c>
+      <c r="J14" t="n">
+        <v>151</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1708704846.773206</v>
+        <v>1829208559.95535</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08092100656201738</v>
+        <v>0.08472134191353443</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03563804643590037</v>
+        <v>0.03688837710926635</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2354928048.617801</v>
+        <v>1946733393.901612</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08996184948708864</v>
+        <v>0.07486106406267802</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04522616029778322</v>
+        <v>0.04383212867157042</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1034,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3437134860.716308</v>
+        <v>4894285353.44451</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1647289007074368</v>
+        <v>0.1260810285688358</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04417987060699805</v>
+        <v>0.0456915250079556</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>75</v>
+      </c>
+      <c r="J17" t="n">
+        <v>156</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,16 +1069,25 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3499733489.541549</v>
+        <v>3147727646.787846</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1186941436154863</v>
+        <v>0.1538974079957735</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02559799762740849</v>
+        <v>0.0285044703440343</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>39</v>
+      </c>
+      <c r="J18" t="n">
+        <v>155</v>
+      </c>
+      <c r="K18" t="n">
+        <v>88.89782639814136</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1105572371.912966</v>
+        <v>1191541478.870604</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1866385823687403</v>
+        <v>0.1288798804216233</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01781962049773422</v>
+        <v>0.02430305402719587</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2766770992.822228</v>
+        <v>2596136044.439472</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1234554459777974</v>
+        <v>0.1144780839813994</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02415579184418855</v>
+        <v>0.02340496633994514</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1761156850.239527</v>
+        <v>1857671703.191456</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08419339044297521</v>
+        <v>0.0691732265811574</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03673886048522967</v>
+        <v>0.03185007602868332</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1205,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2729783724.770814</v>
+        <v>3702859233.30818</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1276515231840939</v>
+        <v>0.1313032283565365</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05712404043478377</v>
+        <v>0.03970902601866573</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>39</v>
+      </c>
+      <c r="J22" t="n">
+        <v>156</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1246,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1465384023.813007</v>
+        <v>1465246651.536296</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1475999291521946</v>
+        <v>0.1151297910646255</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03610856607743827</v>
+        <v>0.05356862976235187</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1281,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3414963656.04295</v>
+        <v>2961166465.140938</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1184996919881048</v>
+        <v>0.1234024060998788</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03649711665498867</v>
+        <v>0.03617472092614014</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>46</v>
+      </c>
+      <c r="J24" t="n">
+        <v>154</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1316,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>913994546.192844</v>
+        <v>1195334057.27547</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08475130423296184</v>
+        <v>0.1159898198692363</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02387101859886187</v>
+        <v>0.01863189940155657</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1351,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1192611999.120532</v>
+        <v>1437555962.384043</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0960391513943573</v>
+        <v>0.1181476387335195</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03605075853420376</v>
+        <v>0.03492401753988396</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1380,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3634281662.408009</v>
+        <v>3355118253.643064</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1438924421305354</v>
+        <v>0.1328084754178747</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02198636079169275</v>
+        <v>0.02520146197637924</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>62</v>
+      </c>
+      <c r="J27" t="n">
+        <v>155</v>
+      </c>
+      <c r="K27" t="n">
+        <v>87.9202287789885</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1417,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2735699891.258346</v>
+        <v>3797663351.886563</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09413478539187874</v>
+        <v>0.1250987517874104</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04963267838511251</v>
+        <v>0.04246378815455567</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>30</v>
+      </c>
+      <c r="J28" t="n">
+        <v>156</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1452,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4804373368.818161</v>
+        <v>5373501566.056933</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1133214857358865</v>
+        <v>0.1204520781843198</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04588048136740507</v>
+        <v>0.03299804402723626</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>145</v>
+      </c>
+      <c r="J29" t="n">
+        <v>156</v>
+      </c>
+      <c r="K29" t="n">
+        <v>158.401138331128</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1658289826.886642</v>
+        <v>2011096685.647547</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1375196167414426</v>
+        <v>0.09340284999658659</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03914432972772371</v>
+        <v>0.04007746061880397</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1530,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1264110508.521708</v>
+        <v>979205010.3972471</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0846244566054257</v>
+        <v>0.110778996456998</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03612681676415877</v>
+        <v>0.04880917911108038</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1503616763.85653</v>
+        <v>1578233948.701607</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08717992874806296</v>
+        <v>0.09882520045467358</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03025444980286308</v>
+        <v>0.03461865046525205</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2706809385.435589</v>
+        <v>3098115671.42296</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1439221006213218</v>
+        <v>0.1995086367936827</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05499152230746461</v>
+        <v>0.05726204473316607</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>998353320.5220373</v>
+        <v>1290529392.235576</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0771034238072468</v>
+        <v>0.09939202327571181</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02285449765380476</v>
+        <v>0.02651157685631945</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1279070193.19963</v>
+        <v>1293022040.478744</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08883625068614885</v>
+        <v>0.1002677196608505</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03595664929597189</v>
+        <v>0.0316438651995255</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2084253179.020297</v>
+        <v>2372856154.707794</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1505499859924264</v>
+        <v>0.1413151678687677</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02301632467106797</v>
+        <v>0.0202806638177576</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2877744378.154752</v>
+        <v>1856997733.467357</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0706269677737533</v>
+        <v>0.08070634453876352</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02795041515600921</v>
+        <v>0.03972579973493289</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2083784471.076042</v>
+        <v>1904121961.394691</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07377647475775061</v>
+        <v>0.1106309090818415</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03550200936447381</v>
+        <v>0.03851300069755118</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1948319621.39196</v>
+        <v>2053131855.334758</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1308971996506648</v>
+        <v>0.1801495822817324</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02419200817124297</v>
+        <v>0.03091927559373086</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1494594337.836943</v>
+        <v>1190650861.610315</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1150531907624685</v>
+        <v>0.1077638310990401</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03960758860579734</v>
+        <v>0.03693393747115973</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2523402148.153913</v>
+        <v>2127094331.329781</v>
       </c>
       <c r="F41" t="n">
-        <v>0.142940429609309</v>
+        <v>0.1564499437107939</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03361073777402324</v>
+        <v>0.02889085981311113</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,16 +1915,25 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2813852667.430281</v>
+        <v>3361621316.096423</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09655950906050421</v>
+        <v>0.1009603078531582</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04546931872376379</v>
+        <v>0.03544501675606962</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>57</v>
+      </c>
+      <c r="J42" t="n">
+        <v>155</v>
+      </c>
+      <c r="K42" t="n">
+        <v>106.685552925431</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1946,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2540487389.318939</v>
+        <v>3068563601.194346</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1399107108055325</v>
+        <v>0.1672235975060421</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02543969113162712</v>
+        <v>0.01831095595719355</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1981,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2057938974.950876</v>
+        <v>2123474166.922081</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0822766486944236</v>
+        <v>0.06452137369837503</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0334629164363625</v>
+        <v>0.02357119947296931</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2016,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2229200919.370741</v>
+        <v>2420648142.006371</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1949090758443305</v>
+        <v>0.1686981861288737</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05526998791284878</v>
+        <v>0.04337077039930542</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2051,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3922649312.632398</v>
+        <v>4514876665.549249</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1498311961997104</v>
+        <v>0.1764843973044855</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04617452079437958</v>
+        <v>0.05578101031162889</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>88</v>
+      </c>
+      <c r="J46" t="n">
+        <v>156</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2086,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3381072708.884433</v>
+        <v>3697536690.82397</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2036475059049099</v>
+        <v>0.1514830743691632</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03660229867660642</v>
+        <v>0.04057674886958734</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>69</v>
+      </c>
+      <c r="J47" t="n">
+        <v>155</v>
+      </c>
+      <c r="K47" t="n">
+        <v>103.9349811687146</v>
       </c>
     </row>
     <row r="48">
@@ -1774,16 +2129,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2968630572.34213</v>
+        <v>4716943619.839446</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1040728737796954</v>
+        <v>0.06994025266786651</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03866256279323551</v>
+        <v>0.03109755413783628</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>69</v>
+      </c>
+      <c r="J48" t="n">
+        <v>156</v>
+      </c>
+      <c r="K48" t="n">
+        <v>139.117511418038</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2160,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1237541160.059784</v>
+        <v>1791778001.370381</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1934636789305502</v>
+        <v>0.1495165070701185</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0295379129584475</v>
+        <v>0.03445547977618138</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2195,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3922507562.729733</v>
+        <v>2945789449.936117</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1728839859755429</v>
+        <v>0.1196998460506471</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03665231243289705</v>
+        <v>0.04891553304839991</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>52</v>
+      </c>
+      <c r="J50" t="n">
+        <v>155</v>
+      </c>
+      <c r="K50" t="n">
+        <v>79.58765224344607</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2232,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>932307292.9967744</v>
+        <v>1503265552.803799</v>
       </c>
       <c r="F51" t="n">
-        <v>0.125041791252038</v>
+        <v>0.1454117357018513</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03667323660631486</v>
+        <v>0.04837722265778203</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2273,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3994270970.422427</v>
+        <v>5078292696.712867</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1230884689703157</v>
+        <v>0.1128646607545445</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04169772618790601</v>
+        <v>0.0405611768665407</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>114</v>
+      </c>
+      <c r="J52" t="n">
+        <v>155</v>
+      </c>
+      <c r="K52" t="n">
+        <v>136.475137761476</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2310,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2537433270.436203</v>
+        <v>3526475104.031441</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1763383138476932</v>
+        <v>0.1955943812872647</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02532399066254935</v>
+        <v>0.03474164859213432</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>20</v>
+      </c>
+      <c r="J53" t="n">
+        <v>151</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2339,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3788102150.569679</v>
+        <v>4171836447.864104</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1249216170139181</v>
+        <v>0.1444636846069275</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04025955490393225</v>
+        <v>0.04498809808064295</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>75</v>
+      </c>
+      <c r="J54" t="n">
+        <v>156</v>
+      </c>
+      <c r="K54" t="n">
+        <v>139.5188514669073</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2376,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4317088192.553164</v>
+        <v>3892063538.588651</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1451142674013261</v>
+        <v>0.2117598348441637</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02311838353574047</v>
+        <v>0.03030140608245936</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>71</v>
+      </c>
+      <c r="J55" t="n">
+        <v>156</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2411,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1485311413.875098</v>
+        <v>1765335982.347603</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1445954482848494</v>
+        <v>0.1228110547431214</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03557952014413247</v>
+        <v>0.041012160035299</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2446,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3837547506.525281</v>
+        <v>4010155472.646214</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1654339958447376</v>
+        <v>0.1374701600424894</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01706868571034846</v>
+        <v>0.01676870548779907</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>63</v>
+      </c>
+      <c r="J57" t="n">
+        <v>156</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2481,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1837688389.336138</v>
+        <v>1572891679.194031</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1263248682898387</v>
+        <v>0.1601091568180724</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03765711773773545</v>
+        <v>0.02826431817701607</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2516,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4526385991.851501</v>
+        <v>5013603940.937675</v>
       </c>
       <c r="F59" t="n">
-        <v>0.07926605578787055</v>
+        <v>0.09919209212183989</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03471005641261898</v>
+        <v>0.03099158037072141</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>75</v>
+      </c>
+      <c r="J59" t="n">
+        <v>156</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2551,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2407631102.186607</v>
+        <v>2505357141.310164</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1501187293416741</v>
+        <v>0.1730230577324071</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02265680369478961</v>
+        <v>0.02557776221057701</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>24</v>
+      </c>
+      <c r="J60" t="n">
+        <v>150</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2586,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3380279642.207486</v>
+        <v>2951135603.188787</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1622496600727019</v>
+        <v>0.1125363930169998</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02159494348308674</v>
+        <v>0.0269234989600215</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>4</v>
+      </c>
+      <c r="J61" t="n">
+        <v>146</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2621,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1913459687.818317</v>
+        <v>2076261242.357967</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1186634673174527</v>
+        <v>0.17173847257697</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04219407583574736</v>
+        <v>0.04765237410127825</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2662,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4450150459.482933</v>
+        <v>4585138202.801018</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09572133856597674</v>
+        <v>0.1061233704138408</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04609160839873987</v>
+        <v>0.03699385705941684</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>76</v>
+      </c>
+      <c r="J63" t="n">
+        <v>156</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2691,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3702883987.093092</v>
+        <v>5338692248.186627</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1731827979634648</v>
+        <v>0.1388920594859233</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02404451974048283</v>
+        <v>0.03198267440731693</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>77</v>
+      </c>
+      <c r="J64" t="n">
+        <v>156</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2726,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5604084625.308434</v>
+        <v>3829810635.514881</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1176760831721066</v>
+        <v>0.1173034311771955</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02007326973090673</v>
+        <v>0.02613934074173322</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>129</v>
+      </c>
+      <c r="J65" t="n">
+        <v>155</v>
+      </c>
+      <c r="K65" t="n">
+        <v>137.0964897732993</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2763,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4435377336.594065</v>
+        <v>5109975059.707267</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1278843319628276</v>
+        <v>0.1394594080137027</v>
       </c>
       <c r="G66" t="n">
-        <v>0.049204975636327</v>
+        <v>0.04591012955024634</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>77</v>
+      </c>
+      <c r="J66" t="n">
+        <v>155</v>
+      </c>
+      <c r="K66" t="n">
+        <v>126.614950379624</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2800,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2540514806.285359</v>
+        <v>2487590414.258811</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07742921072639139</v>
+        <v>0.08585766125288044</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03969887519140333</v>
+        <v>0.0380299050876088</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2835,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5293686499.081044</v>
+        <v>6060908957.703037</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1452737352913822</v>
+        <v>0.1367313866228593</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04839865719438873</v>
+        <v>0.04777134719743346</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>78</v>
+      </c>
+      <c r="J68" t="n">
+        <v>156</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2132824919.726254</v>
+        <v>2229301079.892554</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1412926337536335</v>
+        <v>0.1829727296844489</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05280194623901735</v>
+        <v>0.05012720529338599</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2911,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3731705156.990042</v>
+        <v>2515310419.560087</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08585685654894853</v>
+        <v>0.09185625338565229</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03053868101682029</v>
+        <v>0.03435887383753085</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>21</v>
+      </c>
+      <c r="J70" t="n">
+        <v>148</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,17 +2946,24 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4921972207.284024</v>
+        <v>4496967918.123873</v>
       </c>
       <c r="F71" t="n">
-        <v>0.174938781105451</v>
+        <v>0.1653221427419523</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03286564707359062</v>
+        <v>0.0315408480871386</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>122</v>
+      </c>
+      <c r="J71" t="n">
+        <v>156</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1376546386.932052</v>
+        <v>1875470618.672529</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09316519468907926</v>
+        <v>0.1087759345095002</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05147805254860357</v>
+        <v>0.03585092051391033</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3572376772.03164</v>
+        <v>2728531840.310794</v>
       </c>
       <c r="F73" t="n">
-        <v>0.102613800969167</v>
+        <v>0.06779712758709935</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05100089295530427</v>
+        <v>0.04933291546003817</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>10</v>
+      </c>
+      <c r="J73" t="n">
+        <v>134</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3496788551.927795</v>
+        <v>2816449923.522178</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1686614081176431</v>
+        <v>0.1408179149531195</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02435550629953892</v>
+        <v>0.0275427431691868</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>47</v>
+      </c>
+      <c r="J74" t="n">
+        <v>153</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3086,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2189622008.325096</v>
+        <v>2279025567.741238</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1136879427338362</v>
+        <v>0.1008688648961265</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0330865761960911</v>
+        <v>0.03016880748192866</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3115,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3386710160.673893</v>
+        <v>3779855948.738937</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1193080082324641</v>
+        <v>0.1119706917411484</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02292510109485546</v>
+        <v>0.03159096559450116</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>71</v>
+      </c>
+      <c r="J76" t="n">
+        <v>156</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2114330978.043325</v>
+        <v>1512764598.147767</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1568906648392856</v>
+        <v>0.1409025107804849</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02484753662617713</v>
+        <v>0.02726638833997238</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3185,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3705710216.337812</v>
+        <v>3068138141.256871</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1283557908952793</v>
+        <v>0.09254869964802105</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05201014817453611</v>
+        <v>0.04191079351273351</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>79</v>
+      </c>
+      <c r="J78" t="n">
+        <v>155</v>
+      </c>
+      <c r="K78" t="n">
+        <v>89.46360992193299</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3228,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1299147929.185839</v>
+        <v>1399396438.7069</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1138645582184747</v>
+        <v>0.121275939265843</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03312339804414709</v>
+        <v>0.03514165846865319</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3257,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4338211335.804828</v>
+        <v>4128178672.995065</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1023820978135055</v>
+        <v>0.1090479091392375</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03799081766665299</v>
+        <v>0.03731773271906678</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>76</v>
+      </c>
+      <c r="J80" t="n">
+        <v>155</v>
+      </c>
+      <c r="K80" t="n">
+        <v>101.2915454031636</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5064565784.739792</v>
+        <v>3795149027.911559</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09117322237534807</v>
+        <v>0.1109792840284098</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02155890035602971</v>
+        <v>0.03145208238193431</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>71</v>
+      </c>
+      <c r="J81" t="n">
+        <v>156</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,23 +3329,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4884747530.329775</v>
+        <v>4318087611.060338</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1601127206670165</v>
+        <v>0.1459038746857118</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02664764365884274</v>
+        <v>0.02860160543359152</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>113</v>
+      </c>
+      <c r="J82" t="n">
+        <v>156</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2325401321.470102</v>
+        <v>1817981467.822131</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09747975070932634</v>
+        <v>0.1240193243508345</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03534303794673991</v>
+        <v>0.03219289230653001</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2002137173.456589</v>
+        <v>2380586454.950144</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08794099365553219</v>
+        <v>0.1208181943532984</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04899979680569439</v>
+        <v>0.03440902749045528</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3440,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2474643642.011024</v>
+        <v>2282394544.483621</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1126089644095425</v>
+        <v>0.173436851938479</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05537522864035778</v>
+        <v>0.03850188928688828</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>24</v>
+      </c>
+      <c r="J85" t="n">
+        <v>143</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2346141770.545067</v>
+        <v>2452775147.276475</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1725133460943292</v>
+        <v>0.1210157623080159</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02756610189903749</v>
+        <v>0.02359094986475132</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1012123329.59497</v>
+        <v>940616372.1908607</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1884993952876287</v>
+        <v>0.166256905705651</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03480565266872322</v>
+        <v>0.02998679401135148</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3545,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3179399157.548836</v>
+        <v>2370972597.721949</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1356550478004376</v>
+        <v>0.126442833400681</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03679396951464394</v>
+        <v>0.02891759193174869</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>22</v>
+      </c>
+      <c r="J88" t="n">
+        <v>153</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3580,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2965440600.495442</v>
+        <v>2695985668.375012</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1001259522243525</v>
+        <v>0.1266800567489958</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03501644285964824</v>
+        <v>0.03297843294386441</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>13</v>
+      </c>
+      <c r="J89" t="n">
+        <v>152</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1885667544.81998</v>
+        <v>1824684611.884322</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08885847967137432</v>
+        <v>0.1297508733333138</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03686459642902123</v>
+        <v>0.03542022987325989</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1678251542.75253</v>
+        <v>1485059417.069677</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1802811964225658</v>
+        <v>0.1664222935577253</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04808051765844853</v>
+        <v>0.05582458888302628</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2339987786.72928</v>
+        <v>3003725539.582684</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06885474384950305</v>
+        <v>0.0757917221899015</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03567700302084436</v>
+        <v>0.03655722491371866</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3714,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3113987055.337286</v>
+        <v>5036783744.225541</v>
       </c>
       <c r="F93" t="n">
-        <v>0.126507246818355</v>
+        <v>0.1226132019843182</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04429713890887863</v>
+        <v>0.04592981135770877</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>70</v>
+      </c>
+      <c r="J93" t="n">
+        <v>156</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3062,17 +3755,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2067652993.716753</v>
+        <v>1675567232.516695</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1289505805916451</v>
+        <v>0.144304954723723</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02815979720728101</v>
+        <v>0.03618585997705262</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3784,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2895991678.173283</v>
+        <v>2555882083.105513</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1308799265772869</v>
+        <v>0.1094188354510615</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04322027646352841</v>
+        <v>0.04319219227522308</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3819,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2182751922.043401</v>
+        <v>1688147499.760711</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1180347588608411</v>
+        <v>0.100099460188513</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04070377554833529</v>
+        <v>0.02879039599020986</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3860,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3808356633.228309</v>
+        <v>3726629711.174668</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1112536015766895</v>
+        <v>0.1220529148797372</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02696428508945361</v>
+        <v>0.02635070675353285</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>75</v>
+      </c>
+      <c r="J97" t="n">
+        <v>155</v>
+      </c>
+      <c r="K97" t="n">
+        <v>123.8999692175924</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3891,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3061433573.442173</v>
+        <v>3230121250.192547</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09243596918363053</v>
+        <v>0.08497758870865217</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02247621465444645</v>
+        <v>0.02827342611992566</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>37</v>
+      </c>
+      <c r="J98" t="n">
+        <v>155</v>
+      </c>
+      <c r="K98" t="n">
+        <v>83.84156201377365</v>
       </c>
     </row>
     <row r="99">
@@ -3202,17 +3934,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2672518816.230709</v>
+        <v>3009230433.650434</v>
       </c>
       <c r="F99" t="n">
-        <v>0.101819547976283</v>
+        <v>0.1124133179448102</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02181693642163217</v>
+        <v>0.02945060572340346</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3362742399.210766</v>
+        <v>4793147057.450322</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1652452364275346</v>
+        <v>0.1380633774595049</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02591264073218083</v>
+        <v>0.0200290794027637</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>65</v>
+      </c>
+      <c r="J100" t="n">
+        <v>155</v>
+      </c>
+      <c r="K100" t="n">
+        <v>127.3044856357456</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2759973186.064864</v>
+        <v>3241549759.103179</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2187511006713236</v>
+        <v>0.1548859752505125</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04274293762480915</v>
+        <v>0.03646055407966638</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>12</v>
+      </c>
+      <c r="J101" t="n">
+        <v>148</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
